--- a/Python/albums/albums2021-07-20.xlsx
+++ b/Python/albums/albums2021-07-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="619">
   <si>
     <t>Artist</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>Bach: Violin Concertos</t>
+  </si>
+  <si>
+    <t>Motörhead</t>
+  </si>
+  <si>
+    <t>Bad Magic</t>
   </si>
   <si>
     <t>Walterwarm &amp; Lord Apex</t>
@@ -2197,7 +2203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E368"/>
+  <dimension ref="A1:E369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2772,13 +2778,13 @@
         <v>67</v>
       </c>
       <c r="C34">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2789,13 +2795,13 @@
         <v>69</v>
       </c>
       <c r="C35">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E35">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2806,13 +2812,13 @@
         <v>71</v>
       </c>
       <c r="C36">
-        <v>1996</v>
+        <v>2019</v>
       </c>
       <c r="D36">
         <v>15</v>
       </c>
       <c r="E36">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2823,13 +2829,13 @@
         <v>73</v>
       </c>
       <c r="C37">
-        <v>2017</v>
+        <v>1996</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E37">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2840,13 +2846,13 @@
         <v>75</v>
       </c>
       <c r="C38">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D38">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E38">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2857,13 +2863,13 @@
         <v>77</v>
       </c>
       <c r="C39">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D39">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E39">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2874,13 +2880,13 @@
         <v>79</v>
       </c>
       <c r="C40">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D40">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E40">
-        <v>63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2891,13 +2897,13 @@
         <v>81</v>
       </c>
       <c r="C41">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E41">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2911,10 +2917,10 @@
         <v>2018</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E42">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2925,13 +2931,13 @@
         <v>85</v>
       </c>
       <c r="C43">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D43">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E43">
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2942,13 +2948,13 @@
         <v>87</v>
       </c>
       <c r="C44">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E44">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2959,47 +2965,47 @@
         <v>89</v>
       </c>
       <c r="C45">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="D45">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E46">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
         <v>92</v>
       </c>
       <c r="C47">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E47">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3010,64 +3016,64 @@
         <v>94</v>
       </c>
       <c r="C48">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E48">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C49">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D49">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E49">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C50">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E50">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
         <v>98</v>
       </c>
       <c r="C51">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D51">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E51">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3078,47 +3084,47 @@
         <v>100</v>
       </c>
       <c r="C52">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E52">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C53">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E53">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
         <v>103</v>
       </c>
       <c r="C54">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D54">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E54">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3129,13 +3135,13 @@
         <v>105</v>
       </c>
       <c r="C55">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E55">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3146,64 +3152,64 @@
         <v>107</v>
       </c>
       <c r="C56">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D56">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E56">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C57">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D57">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E57">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C58">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D58">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E58">
-        <v>100</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B59" t="s">
         <v>111</v>
       </c>
       <c r="C59">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D59">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E59">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3214,13 +3220,13 @@
         <v>113</v>
       </c>
       <c r="C60">
-        <v>2020</v>
+        <v>2014</v>
       </c>
       <c r="D60">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E60">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3234,10 +3240,10 @@
         <v>2020</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E61">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3248,13 +3254,13 @@
         <v>117</v>
       </c>
       <c r="C62">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3265,13 +3271,13 @@
         <v>119</v>
       </c>
       <c r="C63">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="D63">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E63">
-        <v>44</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3282,13 +3288,13 @@
         <v>121</v>
       </c>
       <c r="C64">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="D64">
         <v>12</v>
       </c>
       <c r="E64">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3299,47 +3305,47 @@
         <v>123</v>
       </c>
       <c r="C65">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="D65">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E65">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C66">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="D66">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E66">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="B67" t="s">
         <v>126</v>
       </c>
       <c r="C67">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="D67">
         <v>12</v>
       </c>
       <c r="E67">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3350,13 +3356,13 @@
         <v>128</v>
       </c>
       <c r="C68">
-        <v>2017</v>
+        <v>1994</v>
       </c>
       <c r="D68">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E68">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3370,10 +3376,10 @@
         <v>2017</v>
       </c>
       <c r="D69">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E69">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3384,13 +3390,13 @@
         <v>132</v>
       </c>
       <c r="C70">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D70">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E70">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3401,13 +3407,13 @@
         <v>134</v>
       </c>
       <c r="C71">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="D71">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E71">
-        <v>111</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3418,13 +3424,13 @@
         <v>136</v>
       </c>
       <c r="C72">
-        <v>2021</v>
+        <v>2005</v>
       </c>
       <c r="D72">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E72">
-        <v>43</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3435,13 +3441,13 @@
         <v>138</v>
       </c>
       <c r="C73">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D73">
         <v>14</v>
       </c>
       <c r="E73">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3452,13 +3458,13 @@
         <v>140</v>
       </c>
       <c r="C74">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D74">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E74">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3469,13 +3475,13 @@
         <v>142</v>
       </c>
       <c r="C75">
-        <v>2003</v>
+        <v>2014</v>
       </c>
       <c r="D75">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E75">
-        <v>55</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3486,13 +3492,13 @@
         <v>144</v>
       </c>
       <c r="C76">
-        <v>2018</v>
+        <v>2003</v>
       </c>
       <c r="D76">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E76">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3506,10 +3512,10 @@
         <v>2018</v>
       </c>
       <c r="D77">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E77">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3520,13 +3526,13 @@
         <v>148</v>
       </c>
       <c r="C78">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D78">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E78">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3537,13 +3543,13 @@
         <v>150</v>
       </c>
       <c r="C79">
-        <v>1992</v>
+        <v>2020</v>
       </c>
       <c r="D79">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E79">
-        <v>57</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3554,13 +3560,13 @@
         <v>152</v>
       </c>
       <c r="C80">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="D80">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E80">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3571,13 +3577,13 @@
         <v>154</v>
       </c>
       <c r="C81">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="D81">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E81">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3588,13 +3594,13 @@
         <v>156</v>
       </c>
       <c r="C82">
-        <v>1989</v>
+        <v>2006</v>
       </c>
       <c r="D82">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E82">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3605,13 +3611,13 @@
         <v>158</v>
       </c>
       <c r="C83">
-        <v>2013</v>
+        <v>1989</v>
       </c>
       <c r="D83">
         <v>15</v>
       </c>
       <c r="E83">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3622,13 +3628,13 @@
         <v>160</v>
       </c>
       <c r="C84">
-        <v>1996</v>
+        <v>2013</v>
       </c>
       <c r="D84">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E84">
-        <v>65</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3639,13 +3645,13 @@
         <v>162</v>
       </c>
       <c r="C85">
-        <v>2020</v>
+        <v>1996</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E85">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3656,13 +3662,13 @@
         <v>164</v>
       </c>
       <c r="C86">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D86">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E86">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3673,13 +3679,13 @@
         <v>166</v>
       </c>
       <c r="C87">
-        <v>1972</v>
+        <v>2017</v>
       </c>
       <c r="D87">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E87">
-        <v>69</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3690,13 +3696,13 @@
         <v>168</v>
       </c>
       <c r="C88">
-        <v>1999</v>
+        <v>1972</v>
       </c>
       <c r="D88">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E88">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3707,13 +3713,13 @@
         <v>170</v>
       </c>
       <c r="C89">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="D89">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E89">
-        <v>63</v>
+        <v>45</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3724,13 +3730,13 @@
         <v>172</v>
       </c>
       <c r="C90">
-        <v>2019</v>
+        <v>1996</v>
       </c>
       <c r="D90">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E90">
-        <v>46</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3741,13 +3747,13 @@
         <v>174</v>
       </c>
       <c r="C91">
-        <v>1976</v>
+        <v>2019</v>
       </c>
       <c r="D91">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E91">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3758,13 +3764,13 @@
         <v>176</v>
       </c>
       <c r="C92">
-        <v>2019</v>
+        <v>1976</v>
       </c>
       <c r="D92">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E92">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3775,13 +3781,13 @@
         <v>178</v>
       </c>
       <c r="C93">
-        <v>1996</v>
+        <v>2019</v>
       </c>
       <c r="D93">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E93">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3792,13 +3798,13 @@
         <v>180</v>
       </c>
       <c r="C94">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E94">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3809,35 +3815,35 @@
         <v>182</v>
       </c>
       <c r="C95">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="D95">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E95">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="B96" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C96">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D96">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E96">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>184</v>
+        <v>116</v>
       </c>
       <c r="B97" t="s">
         <v>185</v>
@@ -3846,10 +3852,10 @@
         <v>2017</v>
       </c>
       <c r="D97">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E97">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3860,13 +3866,13 @@
         <v>187</v>
       </c>
       <c r="C98">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D98">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E98">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3877,13 +3883,13 @@
         <v>189</v>
       </c>
       <c r="C99">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D99">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E99">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3894,13 +3900,13 @@
         <v>191</v>
       </c>
       <c r="C100">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D100">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E100">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3911,13 +3917,13 @@
         <v>193</v>
       </c>
       <c r="C101">
-        <v>1980</v>
+        <v>2019</v>
       </c>
       <c r="D101">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E101">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3928,13 +3934,13 @@
         <v>195</v>
       </c>
       <c r="C102">
-        <v>2011</v>
+        <v>1980</v>
       </c>
       <c r="D102">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E102">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3945,13 +3951,13 @@
         <v>197</v>
       </c>
       <c r="C103">
-        <v>2003</v>
+        <v>2011</v>
       </c>
       <c r="D103">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E103">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3962,13 +3968,13 @@
         <v>199</v>
       </c>
       <c r="C104">
-        <v>2011</v>
+        <v>2003</v>
       </c>
       <c r="D104">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E104">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3979,13 +3985,13 @@
         <v>201</v>
       </c>
       <c r="C105">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D105">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E105">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3996,81 +4002,81 @@
         <v>203</v>
       </c>
       <c r="C106">
-        <v>1973</v>
+        <v>2012</v>
       </c>
       <c r="D106">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E106">
-        <v>76</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="B107" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C107">
-        <v>2012</v>
+        <v>1973</v>
       </c>
       <c r="D107">
         <v>17</v>
       </c>
       <c r="E107">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="B108" t="s">
         <v>206</v>
       </c>
       <c r="C108">
-        <v>2004</v>
+        <v>2012</v>
       </c>
       <c r="D108">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E108">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="B109" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C109">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="D109">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E109">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="B110" t="s">
         <v>209</v>
       </c>
       <c r="C110">
-        <v>2005</v>
+        <v>2019</v>
       </c>
       <c r="D110">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E110">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4081,13 +4087,13 @@
         <v>211</v>
       </c>
       <c r="C111">
-        <v>1996</v>
+        <v>2005</v>
       </c>
       <c r="D111">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E111">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4098,13 +4104,13 @@
         <v>213</v>
       </c>
       <c r="C112">
-        <v>2011</v>
+        <v>1996</v>
       </c>
       <c r="D112">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E112">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4115,13 +4121,13 @@
         <v>215</v>
       </c>
       <c r="C113">
-        <v>2019</v>
+        <v>2011</v>
       </c>
       <c r="D113">
         <v>12</v>
       </c>
       <c r="E113">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4132,13 +4138,13 @@
         <v>217</v>
       </c>
       <c r="C114">
-        <v>2002</v>
+        <v>2019</v>
       </c>
       <c r="D114">
         <v>12</v>
       </c>
       <c r="E114">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4149,13 +4155,13 @@
         <v>219</v>
       </c>
       <c r="C115">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="D115">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E115">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4166,13 +4172,13 @@
         <v>221</v>
       </c>
       <c r="C116">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D116">
         <v>10</v>
       </c>
       <c r="E116">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4183,47 +4189,47 @@
         <v>223</v>
       </c>
       <c r="C117">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D117">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B118" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C118">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="D118">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E118">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B119" t="s">
         <v>226</v>
       </c>
       <c r="C119">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="D119">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E119">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4234,13 +4240,13 @@
         <v>228</v>
       </c>
       <c r="C120">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="D120">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E120">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4251,13 +4257,13 @@
         <v>230</v>
       </c>
       <c r="C121">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="D121">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E121">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4268,13 +4274,13 @@
         <v>232</v>
       </c>
       <c r="C122">
-        <v>2019</v>
+        <v>2005</v>
       </c>
       <c r="D122">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E122">
-        <v>89</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4285,64 +4291,64 @@
         <v>234</v>
       </c>
       <c r="C123">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D123">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E123">
-        <v>33</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="B124" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C124">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="D124">
         <v>10</v>
       </c>
       <c r="E124">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="B125" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C125">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D125">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E125">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>237</v>
+        <v>101</v>
       </c>
       <c r="B126" t="s">
         <v>238</v>
       </c>
       <c r="C126">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="D126">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E126">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4353,13 +4359,13 @@
         <v>240</v>
       </c>
       <c r="C127">
-        <v>1994</v>
+        <v>2011</v>
       </c>
       <c r="D127">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E127">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4370,47 +4376,47 @@
         <v>242</v>
       </c>
       <c r="C128">
-        <v>2015</v>
+        <v>1994</v>
       </c>
       <c r="D128">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E128">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>184</v>
+        <v>243</v>
       </c>
       <c r="B129" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C129">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D129">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="B130" t="s">
         <v>245</v>
       </c>
       <c r="C130">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D130">
         <v>10</v>
       </c>
       <c r="E130">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4421,13 +4427,13 @@
         <v>247</v>
       </c>
       <c r="C131">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D131">
         <v>10</v>
       </c>
       <c r="E131">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4438,47 +4444,47 @@
         <v>249</v>
       </c>
       <c r="C132">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D132">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E132">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="B133" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C133">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="D133">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E133">
-        <v>34</v>
+        <v>61</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="B134" t="s">
         <v>252</v>
       </c>
       <c r="C134">
-        <v>2007</v>
+        <v>2019</v>
       </c>
       <c r="D134">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E134">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4489,13 +4495,13 @@
         <v>254</v>
       </c>
       <c r="C135">
-        <v>1998</v>
+        <v>2007</v>
       </c>
       <c r="D135">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E135">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4506,13 +4512,13 @@
         <v>256</v>
       </c>
       <c r="C136">
-        <v>1993</v>
+        <v>1998</v>
       </c>
       <c r="D136">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E136">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4523,13 +4529,13 @@
         <v>258</v>
       </c>
       <c r="C137">
-        <v>2002</v>
+        <v>1993</v>
       </c>
       <c r="D137">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E137">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4540,47 +4546,47 @@
         <v>260</v>
       </c>
       <c r="C138">
-        <v>2018</v>
+        <v>2002</v>
       </c>
       <c r="D138">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E138">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>163</v>
+        <v>261</v>
       </c>
       <c r="B139" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C139">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D139">
         <v>15</v>
       </c>
       <c r="E139">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>262</v>
+        <v>165</v>
       </c>
       <c r="B140" t="s">
         <v>263</v>
       </c>
       <c r="C140">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D140">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E140">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4591,98 +4597,98 @@
         <v>265</v>
       </c>
       <c r="C141">
-        <v>1991</v>
+        <v>2016</v>
       </c>
       <c r="D141">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E141">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>53</v>
+        <v>266</v>
       </c>
       <c r="B142" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C142">
-        <v>2013</v>
+        <v>1991</v>
       </c>
       <c r="D142">
         <v>14</v>
       </c>
       <c r="E142">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B143" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C143">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="D143">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E143">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>268</v>
+        <v>31</v>
       </c>
       <c r="B144" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C144">
-        <v>2007</v>
+        <v>2018</v>
       </c>
       <c r="D144">
         <v>12</v>
       </c>
       <c r="E144">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>84</v>
+        <v>270</v>
       </c>
       <c r="B145" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C145">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="D145">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E145">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>270</v>
+        <v>86</v>
       </c>
       <c r="B146" t="s">
         <v>271</v>
       </c>
       <c r="C146">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="D146">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4693,13 +4699,13 @@
         <v>273</v>
       </c>
       <c r="C147">
-        <v>1983</v>
+        <v>2011</v>
       </c>
       <c r="D147">
         <v>9</v>
       </c>
       <c r="E147">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4710,13 +4716,13 @@
         <v>275</v>
       </c>
       <c r="C148">
-        <v>1959</v>
+        <v>1983</v>
       </c>
       <c r="D148">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E148">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4727,47 +4733,47 @@
         <v>277</v>
       </c>
       <c r="C149">
-        <v>2011</v>
+        <v>1959</v>
       </c>
       <c r="D149">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E149">
-        <v>43</v>
+        <v>120</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>15</v>
+        <v>278</v>
       </c>
       <c r="B150" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C150">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="D150">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E150">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c r="B151" t="s">
         <v>280</v>
       </c>
       <c r="C151">
-        <v>2001</v>
+        <v>2018</v>
       </c>
       <c r="D151">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E151">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4778,64 +4784,64 @@
         <v>282</v>
       </c>
       <c r="C152">
-        <v>2017</v>
+        <v>2001</v>
       </c>
       <c r="D152">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E152">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>114</v>
+        <v>283</v>
       </c>
       <c r="B153" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C153">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D153">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E153">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="B154" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C154">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D154">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E154">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>285</v>
+        <v>190</v>
       </c>
       <c r="B155" t="s">
         <v>286</v>
       </c>
       <c r="C155">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D155">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E155">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4846,13 +4852,13 @@
         <v>288</v>
       </c>
       <c r="C156">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D156">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E156">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4863,13 +4869,13 @@
         <v>290</v>
       </c>
       <c r="C157">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="D157">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E157">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4880,13 +4886,13 @@
         <v>292</v>
       </c>
       <c r="C158">
-        <v>1979</v>
+        <v>2013</v>
       </c>
       <c r="D158">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E158">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4897,81 +4903,81 @@
         <v>294</v>
       </c>
       <c r="C159">
-        <v>2004</v>
+        <v>1979</v>
       </c>
       <c r="D159">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E159">
-        <v>46</v>
+        <v>65</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>188</v>
+        <v>295</v>
       </c>
       <c r="B160" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C160">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="D160">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E160">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>296</v>
+        <v>190</v>
       </c>
       <c r="B161" t="s">
         <v>297</v>
       </c>
       <c r="C161">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D161">
         <v>10</v>
       </c>
       <c r="E161">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>25</v>
+        <v>298</v>
       </c>
       <c r="B162" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C162">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D162">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E162">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>299</v>
+        <v>25</v>
       </c>
       <c r="B163" t="s">
         <v>300</v>
       </c>
       <c r="C163">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="D163">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E163">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4982,13 +4988,13 @@
         <v>302</v>
       </c>
       <c r="C164">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D164">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E164">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4996,33 +5002,33 @@
         <v>303</v>
       </c>
       <c r="B165" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C165">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D165">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E165">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B166" t="s">
         <v>305</v>
       </c>
       <c r="C166">
-        <v>1977</v>
+        <v>2018</v>
       </c>
       <c r="D166">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E166">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5033,47 +5039,47 @@
         <v>307</v>
       </c>
       <c r="C167">
-        <v>2015</v>
+        <v>1977</v>
       </c>
       <c r="D167">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E167">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="B168" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C168">
-        <v>1995</v>
+        <v>2015</v>
       </c>
       <c r="D168">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E168">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>309</v>
+        <v>40</v>
       </c>
       <c r="B169" t="s">
         <v>310</v>
       </c>
       <c r="C169">
-        <v>2015</v>
+        <v>1995</v>
       </c>
       <c r="D169">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E169">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5084,13 +5090,13 @@
         <v>312</v>
       </c>
       <c r="C170">
-        <v>1995</v>
+        <v>2015</v>
       </c>
       <c r="D170">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E170">
-        <v>121</v>
+        <v>41</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5101,64 +5107,64 @@
         <v>314</v>
       </c>
       <c r="C171">
-        <v>1968</v>
+        <v>1995</v>
       </c>
       <c r="D171">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E171">
-        <v>31</v>
+        <v>121</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>229</v>
+        <v>315</v>
       </c>
       <c r="B172" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C172">
-        <v>2005</v>
+        <v>1968</v>
       </c>
       <c r="D172">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E172">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="B173" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C173">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="D173">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E173">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>317</v>
+        <v>104</v>
       </c>
       <c r="B174" t="s">
         <v>318</v>
       </c>
       <c r="C174">
-        <v>2020</v>
+        <v>2003</v>
       </c>
       <c r="D174">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E174">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5169,13 +5175,13 @@
         <v>320</v>
       </c>
       <c r="C175">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D175">
         <v>12</v>
       </c>
       <c r="E175">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5186,13 +5192,13 @@
         <v>322</v>
       </c>
       <c r="C176">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="D176">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E176">
-        <v>95</v>
+        <v>61</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5203,13 +5209,13 @@
         <v>324</v>
       </c>
       <c r="C177">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="D177">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E177">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5217,101 +5223,101 @@
         <v>325</v>
       </c>
       <c r="B178" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C178">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="D178">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E178">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B179" t="s">
         <v>327</v>
       </c>
       <c r="C179">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D179">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E179">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>88</v>
+        <v>328</v>
       </c>
       <c r="B180" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C180">
-        <v>2004</v>
+        <v>2019</v>
       </c>
       <c r="D180">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E180">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>329</v>
+        <v>90</v>
       </c>
       <c r="B181" t="s">
         <v>330</v>
       </c>
       <c r="C181">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="D181">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E181">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="B182" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="C182">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D182">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E182">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="B183" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="C183">
-        <v>1998</v>
+        <v>2013</v>
       </c>
       <c r="D183">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E183">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5322,81 +5328,81 @@
         <v>334</v>
       </c>
       <c r="C184">
-        <v>1975</v>
+        <v>1998</v>
       </c>
       <c r="D184">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E184">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>255</v>
+        <v>335</v>
       </c>
       <c r="B185" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C185">
-        <v>1994</v>
+        <v>1975</v>
       </c>
       <c r="D185">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E185">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="B186" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C186">
-        <v>2013</v>
+        <v>1994</v>
       </c>
       <c r="D186">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E186">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="B187" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C187">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="D187">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E187">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>338</v>
+        <v>186</v>
       </c>
       <c r="B188" t="s">
         <v>339</v>
       </c>
       <c r="C188">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D188">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E188">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5407,95 +5413,95 @@
         <v>341</v>
       </c>
       <c r="C189">
-        <v>1974</v>
+        <v>2018</v>
       </c>
       <c r="D189">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E189">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" t="s">
-        <v>255</v>
+        <v>342</v>
       </c>
       <c r="B190" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C190">
-        <v>1991</v>
+        <v>1974</v>
       </c>
       <c r="D190">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E190">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" t="s">
-        <v>343</v>
+        <v>257</v>
       </c>
       <c r="B191" t="s">
         <v>344</v>
       </c>
       <c r="C191">
-        <v>2017</v>
+        <v>1991</v>
       </c>
       <c r="D191">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E191">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" t="s">
-        <v>84</v>
+        <v>345</v>
       </c>
       <c r="B192" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C192">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="D192">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E192">
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" t="s">
-        <v>346</v>
+        <v>86</v>
       </c>
       <c r="B193" t="s">
         <v>347</v>
       </c>
       <c r="C193">
-        <v>1999</v>
+        <v>2011</v>
       </c>
       <c r="D193">
         <v>13</v>
       </c>
       <c r="E193">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" t="s">
-        <v>184</v>
+        <v>348</v>
       </c>
       <c r="B194" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C194">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="D194">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E194">
         <v>41</v>
@@ -5503,19 +5509,19 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" t="s">
-        <v>349</v>
+        <v>186</v>
       </c>
       <c r="B195" t="s">
         <v>350</v>
       </c>
       <c r="C195">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D195">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E195">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5526,13 +5532,13 @@
         <v>352</v>
       </c>
       <c r="C196">
-        <v>1981</v>
+        <v>2019</v>
       </c>
       <c r="D196">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E196">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5543,13 +5549,13 @@
         <v>354</v>
       </c>
       <c r="C197">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="D197">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E197">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5560,13 +5566,13 @@
         <v>356</v>
       </c>
       <c r="C198">
-        <v>2020</v>
+        <v>1982</v>
       </c>
       <c r="D198">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E198">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5577,30 +5583,30 @@
         <v>358</v>
       </c>
       <c r="C199">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D199">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E199">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" t="s">
-        <v>251</v>
+        <v>359</v>
       </c>
       <c r="B200" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C200">
-        <v>1997</v>
+        <v>2019</v>
       </c>
       <c r="D200">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E200">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5608,67 +5614,67 @@
         <v>253</v>
       </c>
       <c r="B201" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C201">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="D201">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E201">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" t="s">
-        <v>361</v>
+        <v>255</v>
       </c>
       <c r="B202" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C202">
-        <v>2012</v>
+        <v>1996</v>
       </c>
       <c r="D202">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E202">
-        <v>77</v>
+        <v>55</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" t="s">
-        <v>88</v>
+        <v>363</v>
       </c>
       <c r="B203" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C203">
-        <v>1999</v>
+        <v>2012</v>
       </c>
       <c r="D203">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E203">
-        <v>137</v>
+        <v>77</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" t="s">
-        <v>363</v>
+        <v>90</v>
       </c>
       <c r="B204" t="s">
         <v>364</v>
       </c>
       <c r="C204">
-        <v>2018</v>
+        <v>1999</v>
       </c>
       <c r="D204">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="E204">
-        <v>19</v>
+        <v>137</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5682,10 +5688,10 @@
         <v>2018</v>
       </c>
       <c r="D205">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E205">
-        <v>56</v>
+        <v>19</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5696,47 +5702,47 @@
         <v>368</v>
       </c>
       <c r="C206">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D206">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E206">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" t="s">
-        <v>53</v>
+        <v>369</v>
       </c>
       <c r="B207" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C207">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D207">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E207">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" t="s">
-        <v>370</v>
+        <v>53</v>
       </c>
       <c r="B208" t="s">
         <v>371</v>
       </c>
       <c r="C208">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D208">
         <v>11</v>
       </c>
       <c r="E208">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5747,115 +5753,115 @@
         <v>373</v>
       </c>
       <c r="C209">
-        <v>1970</v>
+        <v>2017</v>
       </c>
       <c r="D209">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E209">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" t="s">
-        <v>276</v>
+        <v>374</v>
       </c>
       <c r="B210" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C210">
-        <v>2007</v>
+        <v>1970</v>
       </c>
       <c r="D210">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E210">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" t="s">
-        <v>68</v>
+        <v>278</v>
       </c>
       <c r="B211" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C211">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="D211">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E211">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" t="s">
-        <v>343</v>
+        <v>70</v>
       </c>
       <c r="B212" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C212">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="D212">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E212">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="B213" t="s">
         <v>378</v>
       </c>
       <c r="C213">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D213">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" t="s">
-        <v>184</v>
+        <v>379</v>
       </c>
       <c r="B214" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C214">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="D214">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E214">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" t="s">
-        <v>380</v>
+        <v>186</v>
       </c>
       <c r="B215" t="s">
         <v>381</v>
       </c>
       <c r="C215">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D215">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E215">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5866,132 +5872,132 @@
         <v>383</v>
       </c>
       <c r="C216">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D216">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E216">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" t="s">
-        <v>309</v>
+        <v>384</v>
       </c>
       <c r="B217" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C217">
         <v>2018</v>
       </c>
       <c r="D217">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E217">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" t="s">
-        <v>385</v>
+        <v>311</v>
       </c>
       <c r="B218" t="s">
         <v>386</v>
       </c>
       <c r="C218">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D218">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" t="s">
-        <v>241</v>
+        <v>387</v>
       </c>
       <c r="B219" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C219">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D219">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E219">
-        <v>74</v>
+        <v>46</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" t="s">
-        <v>388</v>
+        <v>243</v>
       </c>
       <c r="B220" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C220">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D220">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E220">
-        <v>44</v>
+        <v>74</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B221" t="s">
         <v>390</v>
       </c>
       <c r="C221">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D221">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E221">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" t="s">
-        <v>177</v>
+        <v>391</v>
       </c>
       <c r="B222" t="s">
-        <v>177</v>
+        <v>392</v>
       </c>
       <c r="C222">
-        <v>1992</v>
+        <v>2012</v>
       </c>
       <c r="D222">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E222">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="B223" t="s">
-        <v>391</v>
+        <v>179</v>
       </c>
       <c r="C223">
-        <v>2018</v>
+        <v>1992</v>
       </c>
       <c r="D223">
         <v>10</v>
       </c>
       <c r="E223">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5999,50 +6005,50 @@
         <v>151</v>
       </c>
       <c r="B224" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C224">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="D224">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E224">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="B225" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C225">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="D225">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E225">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" t="s">
-        <v>394</v>
+        <v>95</v>
       </c>
       <c r="B226" t="s">
         <v>395</v>
       </c>
       <c r="C226">
-        <v>1993</v>
+        <v>2021</v>
       </c>
       <c r="D226">
         <v>14</v>
       </c>
       <c r="E226">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6053,13 +6059,13 @@
         <v>397</v>
       </c>
       <c r="C227">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="D227">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E227">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6070,81 +6076,81 @@
         <v>399</v>
       </c>
       <c r="C228">
-        <v>2010</v>
+        <v>1994</v>
       </c>
       <c r="D228">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E228">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B229" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C229">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="D229">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E229">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B230" t="s">
         <v>402</v>
       </c>
       <c r="C230">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="D230">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E230">
-        <v>50</v>
+        <v>78</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" t="s">
-        <v>287</v>
+        <v>403</v>
       </c>
       <c r="B231" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C231">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D231">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E231">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" t="s">
-        <v>404</v>
+        <v>289</v>
       </c>
       <c r="B232" t="s">
         <v>405</v>
       </c>
       <c r="C232">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="D232">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E232">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6155,13 +6161,13 @@
         <v>407</v>
       </c>
       <c r="C233">
-        <v>1966</v>
+        <v>2020</v>
       </c>
       <c r="D233">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E233">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6172,47 +6178,47 @@
         <v>409</v>
       </c>
       <c r="C234">
-        <v>1975</v>
+        <v>1966</v>
       </c>
       <c r="D234">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E234">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" t="s">
-        <v>259</v>
+        <v>410</v>
       </c>
       <c r="B235" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C235">
-        <v>2021</v>
+        <v>1975</v>
       </c>
       <c r="D235">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E235">
-        <v>59</v>
+        <v>36</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" t="s">
-        <v>411</v>
+        <v>261</v>
       </c>
       <c r="B236" t="s">
         <v>412</v>
       </c>
       <c r="C236">
-        <v>1987</v>
+        <v>2021</v>
       </c>
       <c r="D236">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E236">
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6223,13 +6229,13 @@
         <v>414</v>
       </c>
       <c r="C237">
-        <v>2018</v>
+        <v>1987</v>
       </c>
       <c r="D237">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E237">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6240,13 +6246,13 @@
         <v>416</v>
       </c>
       <c r="C238">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D238">
         <v>11</v>
       </c>
       <c r="E238">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6257,7 +6263,7 @@
         <v>418</v>
       </c>
       <c r="C239">
-        <v>1977</v>
+        <v>2020</v>
       </c>
       <c r="D239">
         <v>11</v>
@@ -6268,24 +6274,24 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B240" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C240">
-        <v>2014</v>
+        <v>1977</v>
       </c>
       <c r="D240">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E240">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B241" t="s">
         <v>421</v>
@@ -6294,32 +6300,32 @@
         <v>2014</v>
       </c>
       <c r="D241">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E241">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" t="s">
-        <v>259</v>
+        <v>422</v>
       </c>
       <c r="B242" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C242">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="D242">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E242">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" t="s">
-        <v>423</v>
+        <v>261</v>
       </c>
       <c r="B243" t="s">
         <v>424</v>
@@ -6328,112 +6334,112 @@
         <v>2017</v>
       </c>
       <c r="D243">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E243">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" t="s">
-        <v>139</v>
+        <v>425</v>
       </c>
       <c r="B244" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C244">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="D244">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E244">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" t="s">
-        <v>406</v>
+        <v>141</v>
       </c>
       <c r="B245" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C245">
-        <v>1967</v>
+        <v>2014</v>
       </c>
       <c r="D245">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E245">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" t="s">
-        <v>141</v>
+        <v>408</v>
       </c>
       <c r="B246" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C246">
-        <v>2013</v>
+        <v>1967</v>
       </c>
       <c r="D246">
         <v>13</v>
       </c>
       <c r="E246">
-        <v>96</v>
+        <v>39</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" t="s">
-        <v>428</v>
+        <v>143</v>
       </c>
       <c r="B247" t="s">
         <v>429</v>
       </c>
       <c r="C247">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="D247">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E247">
-        <v>67</v>
+        <v>96</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" t="s">
-        <v>141</v>
+        <v>430</v>
       </c>
       <c r="B248" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C248">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D248">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E248">
-        <v>48</v>
+        <v>67</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" t="s">
-        <v>431</v>
+        <v>143</v>
       </c>
       <c r="B249" t="s">
         <v>432</v>
       </c>
       <c r="C249">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="D249">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E249">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6444,98 +6450,98 @@
         <v>434</v>
       </c>
       <c r="C250">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="D250">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E250">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" t="s">
-        <v>120</v>
+        <v>435</v>
       </c>
       <c r="B251" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C251">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D251">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E251">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" t="s">
-        <v>248</v>
+        <v>122</v>
       </c>
       <c r="B252" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C252">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D252">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E252">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="B253" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C253">
         <v>2018</v>
       </c>
       <c r="D253">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E253">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" t="s">
-        <v>377</v>
+        <v>159</v>
       </c>
       <c r="B254" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C254">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D254">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E254">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" t="s">
-        <v>439</v>
+        <v>379</v>
       </c>
       <c r="B255" t="s">
         <v>440</v>
       </c>
       <c r="C255">
-        <v>1998</v>
+        <v>2020</v>
       </c>
       <c r="D255">
         <v>17</v>
       </c>
       <c r="E255">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6546,13 +6552,13 @@
         <v>442</v>
       </c>
       <c r="C256">
-        <v>2021</v>
+        <v>1998</v>
       </c>
       <c r="D256">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E256">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6563,13 +6569,13 @@
         <v>444</v>
       </c>
       <c r="C257">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D257">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E257">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6580,13 +6586,13 @@
         <v>446</v>
       </c>
       <c r="C258">
-        <v>1993</v>
+        <v>2020</v>
       </c>
       <c r="D258">
         <v>12</v>
       </c>
       <c r="E258">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6597,47 +6603,47 @@
         <v>448</v>
       </c>
       <c r="C259">
-        <v>2021</v>
+        <v>1993</v>
       </c>
       <c r="D259">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E259">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="B260" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C260">
-        <v>2005</v>
+        <v>2021</v>
       </c>
       <c r="D260">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E260">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="B261" t="s">
         <v>451</v>
       </c>
       <c r="C261">
-        <v>1988</v>
+        <v>2005</v>
       </c>
       <c r="D261">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E261">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6648,13 +6654,13 @@
         <v>453</v>
       </c>
       <c r="C262">
-        <v>2019</v>
+        <v>1988</v>
       </c>
       <c r="D262">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E262">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6665,13 +6671,13 @@
         <v>455</v>
       </c>
       <c r="C263">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D263">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E263">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6682,47 +6688,47 @@
         <v>457</v>
       </c>
       <c r="C264">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D264">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E264">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" t="s">
-        <v>7</v>
+        <v>458</v>
       </c>
       <c r="B265" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C265">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="D265">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E265">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" t="s">
-        <v>459</v>
+        <v>7</v>
       </c>
       <c r="B266" t="s">
         <v>460</v>
       </c>
       <c r="C266">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D266">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E266">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6733,47 +6739,47 @@
         <v>462</v>
       </c>
       <c r="C267">
-        <v>1994</v>
+        <v>2015</v>
       </c>
       <c r="D267">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E267">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" t="s">
-        <v>112</v>
+        <v>463</v>
       </c>
       <c r="B268" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C268">
-        <v>2018</v>
+        <v>1994</v>
       </c>
       <c r="D268">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E268">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" t="s">
-        <v>464</v>
+        <v>114</v>
       </c>
       <c r="B269" t="s">
         <v>465</v>
       </c>
       <c r="C269">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="D269">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E269">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6784,64 +6790,64 @@
         <v>467</v>
       </c>
       <c r="C270">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D270">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E270">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" t="s">
-        <v>244</v>
+        <v>468</v>
       </c>
       <c r="B271" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C271">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="D271">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E271">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" t="s">
-        <v>19</v>
+        <v>246</v>
       </c>
       <c r="B272" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C272">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="D272">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E272">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" t="s">
-        <v>470</v>
+        <v>19</v>
       </c>
       <c r="B273" t="s">
         <v>471</v>
       </c>
       <c r="C273">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D273">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E273">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6852,13 +6858,13 @@
         <v>473</v>
       </c>
       <c r="C274">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="D274">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E274">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6869,13 +6875,13 @@
         <v>475</v>
       </c>
       <c r="C275">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D275">
         <v>13</v>
       </c>
       <c r="E275">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6886,13 +6892,13 @@
         <v>477</v>
       </c>
       <c r="C276">
-        <v>2019</v>
+        <v>2013</v>
       </c>
       <c r="D276">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E276">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6903,13 +6909,13 @@
         <v>479</v>
       </c>
       <c r="C277">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D277">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E277">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6920,13 +6926,13 @@
         <v>481</v>
       </c>
       <c r="C278">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D278">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E278">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6937,47 +6943,47 @@
         <v>483</v>
       </c>
       <c r="C279">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="D279">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E279">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" t="s">
-        <v>23</v>
+        <v>484</v>
       </c>
       <c r="B280" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C280">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="D280">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E280">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" t="s">
-        <v>485</v>
+        <v>23</v>
       </c>
       <c r="B281" t="s">
         <v>486</v>
       </c>
       <c r="C281">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="D281">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E281">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -6988,81 +6994,81 @@
         <v>488</v>
       </c>
       <c r="C282">
-        <v>2021</v>
+        <v>1997</v>
       </c>
       <c r="D282">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E282">
-        <v>30</v>
+        <v>52</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" t="s">
-        <v>11</v>
+        <v>489</v>
       </c>
       <c r="B283" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C283">
-        <v>1992</v>
+        <v>2021</v>
       </c>
       <c r="D283">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E283">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" t="s">
-        <v>490</v>
+        <v>11</v>
       </c>
       <c r="B284" t="s">
         <v>491</v>
       </c>
       <c r="C284">
-        <v>1973</v>
+        <v>1992</v>
       </c>
       <c r="D284">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E284">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" t="s">
-        <v>149</v>
+        <v>492</v>
       </c>
       <c r="B285" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C285">
-        <v>2013</v>
+        <v>1973</v>
       </c>
       <c r="D285">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E285">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" t="s">
-        <v>493</v>
+        <v>151</v>
       </c>
       <c r="B286" t="s">
         <v>494</v>
       </c>
       <c r="C286">
-        <v>1968</v>
+        <v>2013</v>
       </c>
       <c r="D286">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E286">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7070,50 +7076,50 @@
         <v>495</v>
       </c>
       <c r="B287" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C287">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="D287">
         <v>11</v>
       </c>
       <c r="E287">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" t="s">
-        <v>133</v>
+        <v>497</v>
       </c>
       <c r="B288" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C288">
-        <v>2002</v>
+        <v>1967</v>
       </c>
       <c r="D288">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E288">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" t="s">
-        <v>497</v>
+        <v>135</v>
       </c>
       <c r="B289" t="s">
         <v>498</v>
       </c>
       <c r="C289">
-        <v>2015</v>
+        <v>2002</v>
       </c>
       <c r="D289">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E289">
-        <v>173</v>
+        <v>77</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7124,13 +7130,13 @@
         <v>500</v>
       </c>
       <c r="C290">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="D290">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E290">
-        <v>135</v>
+        <v>173</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7141,98 +7147,98 @@
         <v>502</v>
       </c>
       <c r="C291">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="D291">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E291">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" t="s">
-        <v>205</v>
+        <v>503</v>
       </c>
       <c r="B292" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C292">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D292">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E292">
-        <v>50</v>
+        <v>118</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" t="s">
-        <v>478</v>
+        <v>207</v>
       </c>
       <c r="B293" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C293">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D293">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E293">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" t="s">
-        <v>505</v>
+        <v>480</v>
       </c>
       <c r="B294" t="s">
         <v>506</v>
       </c>
       <c r="C294">
-        <v>2012</v>
+        <v>2020</v>
       </c>
       <c r="D294">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E294">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" t="s">
-        <v>205</v>
+        <v>507</v>
       </c>
       <c r="B295" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C295">
-        <v>1997</v>
+        <v>2012</v>
       </c>
       <c r="D295">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E295">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" t="s">
-        <v>508</v>
+        <v>207</v>
       </c>
       <c r="B296" t="s">
         <v>509</v>
       </c>
       <c r="C296">
-        <v>1970</v>
+        <v>1997</v>
       </c>
       <c r="D296">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E296">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7243,47 +7249,47 @@
         <v>511</v>
       </c>
       <c r="C297">
-        <v>2015</v>
+        <v>1970</v>
       </c>
       <c r="D297">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E297">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" t="s">
-        <v>133</v>
+        <v>512</v>
       </c>
       <c r="B298" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C298">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="D298">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E298">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" t="s">
-        <v>513</v>
+        <v>135</v>
       </c>
       <c r="B299" t="s">
         <v>514</v>
       </c>
       <c r="C299">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="D299">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E299">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7294,13 +7300,13 @@
         <v>516</v>
       </c>
       <c r="C300">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="D300">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E300">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7311,13 +7317,13 @@
         <v>518</v>
       </c>
       <c r="C301">
-        <v>2012</v>
+        <v>1991</v>
       </c>
       <c r="D301">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E301">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7328,98 +7334,98 @@
         <v>520</v>
       </c>
       <c r="C302">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="D302">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E302">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B303" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C303">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="D303">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E303">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" t="s">
-        <v>15</v>
+        <v>521</v>
       </c>
       <c r="B304" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C304">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="D304">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E304">
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" t="s">
-        <v>517</v>
+        <v>15</v>
       </c>
       <c r="B305" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C305">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="D305">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E305">
-        <v>80</v>
+        <v>39</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" t="s">
-        <v>169</v>
+        <v>519</v>
       </c>
       <c r="B306" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C306">
-        <v>2002</v>
+        <v>2015</v>
       </c>
       <c r="D306">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E306">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" t="s">
-        <v>525</v>
+        <v>171</v>
       </c>
       <c r="B307" t="s">
         <v>526</v>
       </c>
       <c r="C307">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="D307">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E307">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -7430,98 +7436,98 @@
         <v>528</v>
       </c>
       <c r="C308">
-        <v>1996</v>
+        <v>2017</v>
       </c>
       <c r="D308">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E308">
-        <v>76</v>
+        <v>18</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" t="s">
-        <v>120</v>
+        <v>529</v>
       </c>
       <c r="B309" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C309">
-        <v>2017</v>
+        <v>1996</v>
       </c>
       <c r="D309">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E309">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B310" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C310">
-        <v>1999</v>
+        <v>2017</v>
       </c>
       <c r="D310">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E310">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B311" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C311">
-        <v>2020</v>
+        <v>1999</v>
       </c>
       <c r="D311">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E311">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="B312" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C312">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="D312">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E312">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" t="s">
-        <v>533</v>
+        <v>112</v>
       </c>
       <c r="B313" t="s">
         <v>534</v>
       </c>
       <c r="C313">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="D313">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E313">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -7532,13 +7538,13 @@
         <v>536</v>
       </c>
       <c r="C314">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="D314">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E314">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -7549,13 +7555,13 @@
         <v>538</v>
       </c>
       <c r="C315">
-        <v>2000</v>
+        <v>2015</v>
       </c>
       <c r="D315">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E315">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -7566,13 +7572,13 @@
         <v>540</v>
       </c>
       <c r="C316">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="D316">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E316">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -7583,353 +7589,353 @@
         <v>542</v>
       </c>
       <c r="C317">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="D317">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E317">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" t="s">
-        <v>93</v>
+        <v>543</v>
       </c>
       <c r="B318" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C318">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="D318">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E318">
-        <v>20</v>
+        <v>65</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" t="s">
-        <v>478</v>
+        <v>95</v>
       </c>
       <c r="B319" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C319">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="D319">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E319">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" t="s">
-        <v>545</v>
+        <v>480</v>
       </c>
       <c r="B320" t="s">
         <v>546</v>
       </c>
       <c r="C320">
-        <v>1959</v>
+        <v>2015</v>
       </c>
       <c r="D320">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E320">
-        <v>92</v>
+        <v>32</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" t="s">
-        <v>501</v>
+        <v>547</v>
       </c>
       <c r="B321" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C321">
-        <v>2014</v>
+        <v>1959</v>
       </c>
       <c r="D321">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E321">
-        <v>121</v>
+        <v>92</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" t="s">
-        <v>548</v>
+        <v>503</v>
       </c>
       <c r="B322" t="s">
         <v>549</v>
       </c>
       <c r="C322">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="D322">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E322">
-        <v>41</v>
+        <v>121</v>
       </c>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" t="s">
-        <v>389</v>
+        <v>550</v>
       </c>
       <c r="B323" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C323">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D323">
         <v>11</v>
       </c>
       <c r="E323">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" t="s">
-        <v>137</v>
+        <v>391</v>
       </c>
       <c r="B324" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C324">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D324">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E324">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" t="s">
-        <v>552</v>
+        <v>139</v>
       </c>
       <c r="B325" t="s">
         <v>553</v>
       </c>
       <c r="C325">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="D325">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E325">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" t="s">
-        <v>229</v>
+        <v>554</v>
       </c>
       <c r="B326" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C326">
-        <v>2001</v>
+        <v>2011</v>
       </c>
       <c r="D326">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E326">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" t="s">
-        <v>555</v>
+        <v>231</v>
       </c>
       <c r="B327" t="s">
         <v>556</v>
       </c>
       <c r="C327">
-        <v>2020</v>
+        <v>2001</v>
       </c>
       <c r="D327">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E327">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" t="s">
-        <v>476</v>
+        <v>557</v>
       </c>
       <c r="B328" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C328">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D328">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E328">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B329" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C329">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="D329">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E329">
-        <v>71</v>
+        <v>45</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" t="s">
-        <v>559</v>
+        <v>472</v>
       </c>
       <c r="B330" t="s">
         <v>560</v>
       </c>
       <c r="C330">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D330">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E330">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" t="s">
-        <v>57</v>
+        <v>561</v>
       </c>
       <c r="B331" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C331">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D331">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E331">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="B332" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C332">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D332">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E332">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" t="s">
-        <v>338</v>
+        <v>31</v>
       </c>
       <c r="B333" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C333">
         <v>2020</v>
       </c>
       <c r="D333">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E333">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" t="s">
-        <v>564</v>
+        <v>340</v>
       </c>
       <c r="B334" t="s">
         <v>565</v>
       </c>
       <c r="C334">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D334">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E334">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" t="s">
-        <v>149</v>
+        <v>566</v>
       </c>
       <c r="B335" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C335">
-        <v>1996</v>
+        <v>2018</v>
       </c>
       <c r="D335">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E335">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B336" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C336">
-        <v>2016</v>
+        <v>1996</v>
       </c>
       <c r="D336">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E336">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" t="s">
-        <v>568</v>
+        <v>139</v>
       </c>
       <c r="B337" t="s">
         <v>569</v>
       </c>
       <c r="C337">
-        <v>2007</v>
+        <v>2016</v>
       </c>
       <c r="D337">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E337">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7940,13 +7946,13 @@
         <v>571</v>
       </c>
       <c r="C338">
-        <v>2015</v>
+        <v>2007</v>
       </c>
       <c r="D338">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E338">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7957,13 +7963,13 @@
         <v>573</v>
       </c>
       <c r="C339">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D339">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E339">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7974,98 +7980,98 @@
         <v>575</v>
       </c>
       <c r="C340">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D340">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E340">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" t="s">
-        <v>365</v>
+        <v>576</v>
       </c>
       <c r="B341" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C341">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="D341">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E341">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" t="s">
-        <v>53</v>
+        <v>367</v>
       </c>
       <c r="B342" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C342">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D342">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E342">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B343" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C343">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D343">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E343">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" t="s">
-        <v>564</v>
+        <v>46</v>
       </c>
       <c r="B344" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C344">
         <v>2018</v>
       </c>
       <c r="D344">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E344">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="B345" t="s">
         <v>581</v>
       </c>
       <c r="C345">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="D345">
         <v>13</v>
       </c>
       <c r="E345">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8076,13 +8082,13 @@
         <v>583</v>
       </c>
       <c r="C346">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="D346">
         <v>13</v>
       </c>
       <c r="E346">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8093,47 +8099,47 @@
         <v>585</v>
       </c>
       <c r="C347">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="D347">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E347">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" t="s">
-        <v>216</v>
+        <v>586</v>
       </c>
       <c r="B348" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C348">
-        <v>2006</v>
+        <v>2020</v>
       </c>
       <c r="D348">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E348">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" t="s">
-        <v>587</v>
+        <v>218</v>
       </c>
       <c r="B349" t="s">
         <v>588</v>
       </c>
       <c r="C349">
-        <v>2019</v>
+        <v>2006</v>
       </c>
       <c r="D349">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E349">
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -8144,98 +8150,98 @@
         <v>590</v>
       </c>
       <c r="C350">
-        <v>2007</v>
+        <v>2019</v>
       </c>
       <c r="D350">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E350">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" t="s">
-        <v>59</v>
+        <v>591</v>
       </c>
       <c r="B351" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C351">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="D351">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E351">
-        <v>132</v>
+        <v>67</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B352" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C352">
-        <v>2019</v>
+        <v>2003</v>
       </c>
       <c r="D352">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E352">
-        <v>63</v>
+        <v>132</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" t="s">
-        <v>452</v>
+        <v>42</v>
       </c>
       <c r="B353" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C353">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D353">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E353">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="B354" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C354">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D354">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E354">
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" t="s">
-        <v>595</v>
+        <v>433</v>
       </c>
       <c r="B355" t="s">
         <v>596</v>
       </c>
       <c r="C355">
-        <v>1995</v>
+        <v>2020</v>
       </c>
       <c r="D355">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E355">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -8246,47 +8252,47 @@
         <v>598</v>
       </c>
       <c r="C356">
-        <v>2020</v>
+        <v>1995</v>
       </c>
       <c r="D356">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E356">
-        <v>86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" t="s">
-        <v>501</v>
+        <v>599</v>
       </c>
       <c r="B357" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C357">
-        <v>1991</v>
+        <v>2020</v>
       </c>
       <c r="D357">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E357">
-        <v>72</v>
+        <v>86</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" t="s">
-        <v>600</v>
+        <v>503</v>
       </c>
       <c r="B358" t="s">
         <v>601</v>
       </c>
       <c r="C358">
-        <v>2011</v>
+        <v>1991</v>
       </c>
       <c r="D358">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E358">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -8297,137 +8303,137 @@
         <v>603</v>
       </c>
       <c r="C359">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="D359">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E359">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" t="s">
-        <v>225</v>
+        <v>604</v>
       </c>
       <c r="B360" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C360">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="D360">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E360">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" t="s">
-        <v>605</v>
+        <v>227</v>
       </c>
       <c r="B361" t="s">
         <v>606</v>
       </c>
       <c r="C361">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="D361">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E361">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" t="s">
-        <v>246</v>
+        <v>607</v>
       </c>
       <c r="B362" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C362">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D362">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E362">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" t="s">
-        <v>608</v>
+        <v>248</v>
       </c>
       <c r="B363" t="s">
         <v>609</v>
       </c>
       <c r="C363">
-        <v>2002</v>
+        <v>2017</v>
       </c>
       <c r="D363">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E363">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" t="s">
-        <v>517</v>
+        <v>610</v>
       </c>
       <c r="B364" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C364">
-        <v>2018</v>
+        <v>2002</v>
       </c>
       <c r="D364">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E364">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" t="s">
-        <v>611</v>
+        <v>519</v>
       </c>
       <c r="B365" t="s">
         <v>612</v>
       </c>
       <c r="C365">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="D365">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E365">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" t="s">
-        <v>76</v>
+        <v>613</v>
       </c>
       <c r="B366" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C366">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="D366">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E366">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" t="s">
-        <v>614</v>
+        <v>78</v>
       </c>
       <c r="B367" t="s">
         <v>615</v>
@@ -8436,26 +8442,43 @@
         <v>2018</v>
       </c>
       <c r="D367">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E367">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" t="s">
-        <v>244</v>
+        <v>616</v>
       </c>
       <c r="B368" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C368">
+        <v>2018</v>
+      </c>
+      <c r="D368">
+        <v>10</v>
+      </c>
+      <c r="E368">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" t="s">
+        <v>246</v>
+      </c>
+      <c r="B369" t="s">
+        <v>618</v>
+      </c>
+      <c r="C369">
         <v>2019</v>
       </c>
-      <c r="D368">
+      <c r="D369">
         <v>12</v>
       </c>
-      <c r="E368">
+      <c r="E369">
         <v>29</v>
       </c>
     </row>
